--- a/biology/Botanique/Grewia_coriacea/Grewia_coriacea.xlsx
+++ b/biology/Botanique/Grewia_coriacea/Grewia_coriacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grewia coriacea Mast. est une espèce d'arbre à briquet[Quoi ?] de la famille des Malvaceae originaire d'Afrique tropicale. Elle présente de remarquables qualités tinctoriales pour les populations d'Afrique centrale étant donné sa fréquence d'utilisation, sa répartition géographique et sa facilité d'approvisionnement.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grewia coriacea est un arbuste mesurant de 10 à 20 m de haut. Ses feuilles sont simples, à stipules oblongues et elliptiques, et ses inflorescences prennent la forme de panicules terminales et axillaires mesurant entre 3 et 10 cm de long. Ses fleurs sont jeunes, soit bisexuées soit unisexuées avec 5 sépales tomenteux et 5 pétales plus petits que les sépales, glanduleux et dont l'ovaire est supère, à 3 loges. Les fruits sont des drupes ovoïdes piriformes à exocarpe coriace avec une graine. La plante est sempervirente et fructifie en mai, juin et juillet.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe environ une trentaine d'espèces du genre Grewia qui se distribue sur les plateaux, Pool et Bouenza, dans les régions dont le climat est équatorial à tropical, les sols argilo-sableux et où les pluies sont abondantes.
 </t>
@@ -573,9 +589,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les analyses phytochimiques de l'extrait rouge sang des fruits de cette plante ont révélé la présence de flavonoïdes et d'anthocyanes[3], ainsi que de tanins condensés[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses phytochimiques de l'extrait rouge sang des fruits de cette plante ont révélé la présence de flavonoïdes et d'anthocyanes, ainsi que de tanins condensés.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jus coloré des fruits est souvent associé à de l'argile (kaolin) afin de décorer en rouge les nombreuses parures utilisées au cours des cérémonies traditionnelles de mariage, ainsi que pour le maquillage de la mariée[3].
-Un de ses noms vernaculaires est Tsui en langue Téké)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jus coloré des fruits est souvent associé à de l'argile (kaolin) afin de décorer en rouge les nombreuses parures utilisées au cours des cérémonies traditionnelles de mariage, ainsi que pour le maquillage de la mariée.
+Un de ses noms vernaculaires est Tsui en langue Téké).
 </t>
         </is>
       </c>
